--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.217473</v>
+        <v>0.2147063333333333</v>
       </c>
       <c r="H2">
-        <v>0.652419</v>
+        <v>0.644119</v>
       </c>
       <c r="I2">
-        <v>0.003819775075312922</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="J2">
-        <v>0.003819775075312921</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N2">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q2">
-        <v>0.04527476148700001</v>
+        <v>0.03889262090777778</v>
       </c>
       <c r="R2">
-        <v>0.407472853383</v>
+        <v>0.3500335881700001</v>
       </c>
       <c r="S2">
-        <v>4.859062070857762E-05</v>
+        <v>4.247683822593277E-05</v>
       </c>
       <c r="T2">
-        <v>4.85906207085776E-05</v>
+        <v>4.247683822593277E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.217473</v>
+        <v>0.2147063333333333</v>
       </c>
       <c r="H3">
-        <v>0.652419</v>
+        <v>0.644119</v>
       </c>
       <c r="I3">
-        <v>0.003819775075312922</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="J3">
-        <v>0.003819775075312921</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q3">
-        <v>2.919647081054</v>
+        <v>2.882503664365111</v>
       </c>
       <c r="R3">
-        <v>26.276823729486</v>
+        <v>25.942532979286</v>
       </c>
       <c r="S3">
-        <v>0.003133477886109591</v>
+        <v>0.003148145817357596</v>
       </c>
       <c r="T3">
-        <v>0.00313347788610959</v>
+        <v>0.003148145817357597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.217473</v>
+        <v>0.2147063333333333</v>
       </c>
       <c r="H4">
-        <v>0.652419</v>
+        <v>0.644119</v>
       </c>
       <c r="I4">
-        <v>0.003819775075312922</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="J4">
-        <v>0.003819775075312921</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N4">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q4">
-        <v>0.5835676281279999</v>
+        <v>0.5709296188182222</v>
       </c>
       <c r="R4">
-        <v>5.252108653152</v>
+        <v>5.138366569364</v>
       </c>
       <c r="S4">
-        <v>0.0006263072922938293</v>
+        <v>0.0006235446336835915</v>
       </c>
       <c r="T4">
-        <v>0.0006263072922938291</v>
+        <v>0.0006235446336835915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.217473</v>
+        <v>0.2147063333333333</v>
       </c>
       <c r="H5">
-        <v>0.652419</v>
+        <v>0.644119</v>
       </c>
       <c r="I5">
-        <v>0.003819775075312922</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="J5">
-        <v>0.003819775075312921</v>
+        <v>0.00381773955517184</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N5">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q5">
-        <v>0.01062138132</v>
+        <v>0.003270836282</v>
       </c>
       <c r="R5">
-        <v>0.09559243188000001</v>
+        <v>0.029437526538</v>
       </c>
       <c r="S5">
-        <v>1.139927620092448E-05</v>
+        <v>3.572265904719245E-06</v>
       </c>
       <c r="T5">
-        <v>1.139927620092448E-05</v>
+        <v>3.572265904719245E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>166.295639</v>
       </c>
       <c r="I6">
-        <v>0.9736257481548445</v>
+        <v>0.9856461909412342</v>
       </c>
       <c r="J6">
-        <v>0.9736257481548444</v>
+        <v>0.9856461909412343</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N6">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O6">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P6">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q6">
-        <v>11.54012282299145</v>
+        <v>10.04111545575222</v>
       </c>
       <c r="R6">
-        <v>103.861105406923</v>
+        <v>90.37003910177</v>
       </c>
       <c r="S6">
-        <v>0.01238530502658498</v>
+        <v>0.01096647196477843</v>
       </c>
       <c r="T6">
-        <v>0.01238530502658498</v>
+        <v>0.01096647196477843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>166.295639</v>
       </c>
       <c r="I7">
-        <v>0.9736257481548445</v>
+        <v>0.9856461909412342</v>
       </c>
       <c r="J7">
-        <v>0.9736257481548444</v>
+        <v>0.9856461909412343</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>40.275994</v>
       </c>
       <c r="O7">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P7">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q7">
-        <v>744.1913509544629</v>
+        <v>744.1913509544628</v>
       </c>
       <c r="R7">
-        <v>6697.722158590166</v>
+        <v>6697.722158590165</v>
       </c>
       <c r="S7">
-        <v>0.7986948684249902</v>
+        <v>0.8127736029563772</v>
       </c>
       <c r="T7">
-        <v>0.7986948684249899</v>
+        <v>0.8127736029563774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>166.295639</v>
       </c>
       <c r="I8">
-        <v>0.9736257481548445</v>
+        <v>0.9856461909412342</v>
       </c>
       <c r="J8">
-        <v>0.9736257481548444</v>
+        <v>0.9856461909412343</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N8">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O8">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P8">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q8">
-        <v>148.7460537158791</v>
+        <v>147.3999459500538</v>
       </c>
       <c r="R8">
-        <v>1338.714483442912</v>
+        <v>1326.599513550484</v>
       </c>
       <c r="S8">
-        <v>0.1596400034063418</v>
+        <v>0.1609838450712272</v>
       </c>
       <c r="T8">
-        <v>0.1596400034063418</v>
+        <v>0.1609838450712271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>166.295639</v>
       </c>
       <c r="I9">
-        <v>0.9736257481548445</v>
+        <v>0.9856461909412342</v>
       </c>
       <c r="J9">
-        <v>0.9736257481548444</v>
+        <v>0.9856461909412343</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N9">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O9">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P9">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q9">
-        <v>2.70729300292</v>
+        <v>0.844449254842</v>
       </c>
       <c r="R9">
-        <v>24.36563702628</v>
+        <v>7.600043293578</v>
       </c>
       <c r="S9">
-        <v>0.002905571296927633</v>
+        <v>0.0009222709488513767</v>
       </c>
       <c r="T9">
-        <v>0.002905571296927632</v>
+        <v>0.0009222709488513768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.284104333333333</v>
+        <v>0.5925393333333333</v>
       </c>
       <c r="H10">
-        <v>3.852313</v>
+        <v>1.777618</v>
       </c>
       <c r="I10">
-        <v>0.02255447676984261</v>
+        <v>0.01053606950359399</v>
       </c>
       <c r="J10">
-        <v>0.02255447676984261</v>
+        <v>0.01053606950359399</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N10">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O10">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P10">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q10">
-        <v>0.2673321167045556</v>
+        <v>0.1073345499711111</v>
       </c>
       <c r="R10">
-        <v>2.405989050341</v>
+        <v>0.9660109497400001</v>
       </c>
       <c r="S10">
-        <v>0.0002869111412048434</v>
+        <v>0.0001172261526418351</v>
       </c>
       <c r="T10">
-        <v>0.0002869111412048434</v>
+        <v>0.0001172261526418351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.284104333333333</v>
+        <v>0.5925393333333333</v>
       </c>
       <c r="H11">
-        <v>3.852313</v>
+        <v>1.777618</v>
       </c>
       <c r="I11">
-        <v>0.02255447676984261</v>
+        <v>0.01053606950359399</v>
       </c>
       <c r="J11">
-        <v>0.02255447676984261</v>
+        <v>0.01053606950359399</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>40.275994</v>
       </c>
       <c r="O11">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P11">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q11">
-        <v>17.23952614156911</v>
+        <v>7.955036878032444</v>
       </c>
       <c r="R11">
-        <v>155.155735274122</v>
+        <v>71.59533190229199</v>
       </c>
       <c r="S11">
-        <v>0.01850212454859913</v>
+        <v>0.008688147177089288</v>
       </c>
       <c r="T11">
-        <v>0.01850212454859913</v>
+        <v>0.00868814717708929</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.284104333333333</v>
+        <v>0.5925393333333333</v>
       </c>
       <c r="H12">
-        <v>3.852313</v>
+        <v>1.777618</v>
       </c>
       <c r="I12">
-        <v>0.02255447676984261</v>
+        <v>0.01053606950359399</v>
       </c>
       <c r="J12">
-        <v>0.02255447676984261</v>
+        <v>0.01053606950359399</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N12">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O12">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P12">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q12">
-        <v>3.445768992344888</v>
+        <v>1.575632402000889</v>
       </c>
       <c r="R12">
-        <v>31.011920931104</v>
+        <v>14.180691618008</v>
       </c>
       <c r="S12">
-        <v>0.003698132218862906</v>
+        <v>0.001720837554301858</v>
       </c>
       <c r="T12">
-        <v>0.003698132218862905</v>
+        <v>0.001720837554301858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.284104333333333</v>
+        <v>0.5925393333333333</v>
       </c>
       <c r="H13">
-        <v>3.852313</v>
+        <v>1.777618</v>
       </c>
       <c r="I13">
-        <v>0.02255447676984261</v>
+        <v>0.01053606950359399</v>
       </c>
       <c r="J13">
-        <v>0.02255447676984261</v>
+        <v>0.01053606950359399</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N13">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O13">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P13">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q13">
-        <v>0.06271565564000001</v>
+        <v>0.009026744203999999</v>
       </c>
       <c r="R13">
-        <v>0.5644409007600001</v>
+        <v>0.08124069783599999</v>
       </c>
       <c r="S13">
-        <v>6.730886117573522E-05</v>
+        <v>9.858619561005365E-06</v>
       </c>
       <c r="T13">
-        <v>6.730886117573522E-05</v>
+        <v>9.858619561005365E-06</v>
       </c>
     </row>
   </sheetData>
